--- a/src/images/ModeleS5Jury.xlsx
+++ b/src/images/ModeleS5Jury.xlsx
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">BUT 2 INFORMATIQUE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">BUT 3 INFORMATIQUE</t>
   </si>
   <si>
     <t xml:space="preserve">SEMESTRE 5</t>
   </si>
   <si>
-    <t xml:space="preserve">2023 -2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURY DU 14 MARS 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compétences BUT 1</t>
   </si>
   <si>
@@ -59,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Parcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursus</t>
   </si>
   <si>
     <t xml:space="preserve">C1</t>
@@ -98,11 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -136,6 +132,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -223,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,7 +251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,10 +264,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,11 +286,11 @@
   </sheetPr>
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.19"/>
@@ -299,9 +298,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="0" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="7" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="7.28"/>
   </cols>
@@ -320,24 +317,20 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="3"/>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -345,7 +338,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -353,241 +346,113 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="8" t="s">
+      <c r="X8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="n">
-        <v>26</v>
-      </c>
-    </row>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G7:L7"/>
